--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2985.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2985.xlsx
@@ -354,7 +354,7 @@
         <v>2.508763423357777</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.256928541143165</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2985.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2985.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193913497304155</v>
+        <v>1.730734705924988</v>
       </c>
       <c r="B1">
-        <v>2.508763423357777</v>
+        <v>2.356780529022217</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.448511838912964</v>
       </c>
       <c r="D1">
-        <v>2.256928541143165</v>
+        <v>2.749891757965088</v>
       </c>
       <c r="E1">
-        <v>1.185804360811691</v>
+        <v>3.485612630844116</v>
       </c>
     </row>
   </sheetData>
